--- a/Test protocol/Sprint_2/DE/System Test protocol_Braille DP2_Sprint 2_DE.xlsx
+++ b/Test protocol/Sprint_2/DE/System Test protocol_Braille DP2_Sprint 2_DE.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis Viro\Documents\GitHub\testing\Test protocol\Sprint_2\DE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14232" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name=" Background and Preparation" sheetId="1" r:id="rId1"/>
@@ -751,12 +756,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="20 % - Akzent3" xfId="4" builtinId="38"/>
+    <cellStyle name="20% - Accent3" xfId="4" builtinId="38"/>
+    <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
+    <cellStyle name="Heading 4" xfId="3" builtinId="19"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15"/>
-    <cellStyle name="Überschrift 2" xfId="2" builtinId="17"/>
-    <cellStyle name="Überschrift 4" xfId="3" builtinId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1031,7 +1036,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1046,7 +1051,7 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="101" customWidth="1"/>
   </cols>
@@ -1056,7 +1061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39"/>
     </row>
     <row r="3" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -1064,7 +1069,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="43.9" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>36</v>
       </c>
@@ -1074,35 +1079,35 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
     </row>
-    <row r="11" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="34"/>
     </row>
     <row r="14" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -1110,20 +1115,20 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="27"/>
     </row>
-    <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="36" t="s">
         <v>32</v>
       </c>
@@ -1138,7 +1143,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="31"/>
     </row>
   </sheetData>
@@ -1161,16 +1166,16 @@
       <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.45" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
@@ -1179,13 +1184,13 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:5" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="21"/>
       <c r="C2" s="20"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -1200,7 +1205,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
@@ -1215,7 +1220,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="26" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -1224,7 +1229,7 @@
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:5" s="39" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -1238,7 +1243,7 @@
       <c r="B7" s="12"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:5" s="7" customFormat="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1247,7 +1252,7 @@
       </c>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1256,7 +1261,7 @@
       </c>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -1265,7 +1270,7 @@
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
@@ -1274,7 +1279,7 @@
       </c>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:5" s="7" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="7" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -1285,14 +1290,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="9"/>
     </row>
-    <row r="14" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
@@ -1301,14 +1306,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15"/>
     </row>
-    <row r="16" spans="1:5" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
     </row>
@@ -1319,7 +1324,7 @@
       <c r="B17" s="12"/>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:3" s="7" customFormat="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>0</v>
       </c>
@@ -1328,7 +1333,7 @@
       </c>
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>1</v>
       </c>
@@ -1337,7 +1342,7 @@
       </c>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
@@ -1346,7 +1351,7 @@
       </c>
       <c r="C20" s="9"/>
     </row>
-    <row r="21" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -1355,7 +1360,7 @@
       </c>
       <c r="C21" s="9"/>
     </row>
-    <row r="22" spans="1:3" s="7" customFormat="1" ht="187.15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>4</v>
       </c>
@@ -1375,21 +1380,21 @@
       </c>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="9"/>
     </row>
-    <row r="25" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:3" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
     </row>
@@ -1400,7 +1405,7 @@
       <c r="B27" s="12"/>
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="1:3" s="7" customFormat="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>0</v>
       </c>
@@ -1409,7 +1414,7 @@
       </c>
       <c r="C28" s="9"/>
     </row>
-    <row r="29" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>1</v>
       </c>
@@ -1418,7 +1423,7 @@
       </c>
       <c r="C29" s="9"/>
     </row>
-    <row r="30" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>2</v>
       </c>
@@ -1427,7 +1432,7 @@
       </c>
       <c r="C30" s="9"/>
     </row>
-    <row r="31" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>3</v>
       </c>
@@ -1436,7 +1441,7 @@
       </c>
       <c r="C31" s="9"/>
     </row>
-    <row r="32" spans="1:3" s="7" customFormat="1" ht="316.89999999999998" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" s="7" customFormat="1" ht="288" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>4</v>
       </c>
@@ -1447,7 +1452,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -1456,14 +1461,14 @@
       </c>
       <c r="C33" s="9"/>
     </row>
-    <row r="34" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="9"/>
     </row>
-    <row r="35" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>7</v>
       </c>
@@ -1486,19 +1491,19 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="48.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.45" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
@@ -1507,13 +1512,13 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:5" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="21"/>
       <c r="C2" s="20"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -1528,7 +1533,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
@@ -1543,7 +1548,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="26" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -1556,7 +1561,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="39" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -1570,7 +1575,7 @@
       <c r="B7" s="46"/>
       <c r="C7" s="47"/>
     </row>
-    <row r="8" spans="1:5" s="7" customFormat="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1579,7 +1584,7 @@
       </c>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1588,7 +1593,7 @@
       </c>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -1597,7 +1602,7 @@
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
@@ -1606,7 +1611,7 @@
       </c>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:5" s="7" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -1617,7 +1622,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
@@ -1628,7 +1633,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>74</v>
       </c>
@@ -1636,7 +1641,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
         <v>76</v>
       </c>
@@ -1644,7 +1649,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
         <v>78</v>
       </c>
@@ -1652,7 +1657,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>78</v>
       </c>
@@ -1660,7 +1665,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>62</v>
       </c>
@@ -1668,7 +1673,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>6</v>
       </c>
@@ -1677,7 +1682,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>7</v>
       </c>
@@ -1686,7 +1691,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
     </row>
@@ -1697,7 +1702,7 @@
       <c r="B22" s="12"/>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:3" s="7" customFormat="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>0</v>
       </c>
@@ -1706,7 +1711,7 @@
       </c>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>1</v>
       </c>
@@ -1715,7 +1720,7 @@
       </c>
       <c r="C24" s="9"/>
     </row>
-    <row r="25" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>2</v>
       </c>
@@ -1724,7 +1729,7 @@
       </c>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>3</v>
       </c>
@@ -1733,7 +1738,7 @@
       </c>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="1:3" s="7" customFormat="1" ht="216" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" s="7" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>4</v>
       </c>
@@ -1744,7 +1749,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>5</v>
       </c>
@@ -1753,7 +1758,7 @@
       </c>
       <c r="C28" s="44"/>
     </row>
-    <row r="29" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
         <v>74</v>
       </c>
@@ -1761,7 +1766,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
         <v>82</v>
       </c>
@@ -1769,7 +1774,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
         <v>83</v>
       </c>
@@ -1777,7 +1782,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>6</v>
       </c>
@@ -1786,7 +1791,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>7</v>
       </c>
@@ -1795,7 +1800,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
     </row>
@@ -1806,7 +1811,7 @@
       <c r="B35" s="12"/>
       <c r="C35" s="8"/>
     </row>
-    <row r="36" spans="1:3" s="7" customFormat="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>0</v>
       </c>
@@ -1815,7 +1820,7 @@
       </c>
       <c r="C36" s="9"/>
     </row>
-    <row r="37" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>1</v>
       </c>
@@ -1824,7 +1829,7 @@
       </c>
       <c r="C37" s="9"/>
     </row>
-    <row r="38" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>2</v>
       </c>
@@ -1833,7 +1838,7 @@
       </c>
       <c r="C38" s="9"/>
     </row>
-    <row r="39" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>3</v>
       </c>
@@ -1842,7 +1847,7 @@
       </c>
       <c r="C39" s="9"/>
     </row>
-    <row r="40" spans="1:3" s="7" customFormat="1" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" s="7" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>4</v>
       </c>
@@ -1853,7 +1858,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>5</v>
       </c>
@@ -1864,7 +1869,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="11" t="s">
         <v>74</v>
       </c>
@@ -1872,7 +1877,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="11" t="s">
         <v>82</v>
       </c>
@@ -1880,7 +1885,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
         <v>83</v>
       </c>
@@ -1888,7 +1893,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
         <v>62</v>
       </c>
@@ -1896,7 +1901,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>6</v>
       </c>
@@ -1905,7 +1910,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>7</v>
       </c>
@@ -1914,7 +1919,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
     </row>
@@ -1925,7 +1930,7 @@
       <c r="B49" s="12"/>
       <c r="C49" s="8"/>
     </row>
-    <row r="50" spans="1:3" s="7" customFormat="1" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" s="7" customFormat="1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>0</v>
       </c>
@@ -1934,7 +1939,7 @@
       </c>
       <c r="C50" s="9"/>
     </row>
-    <row r="51" spans="1:3" s="7" customFormat="1" ht="187.15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>1</v>
       </c>
@@ -1943,7 +1948,7 @@
       </c>
       <c r="C51" s="43"/>
     </row>
-    <row r="52" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>2</v>
       </c>
@@ -1952,7 +1957,7 @@
       </c>
       <c r="C52" s="9"/>
     </row>
-    <row r="53" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>3</v>
       </c>
@@ -1961,7 +1966,7 @@
       </c>
       <c r="C53" s="9"/>
     </row>
-    <row r="54" spans="1:3" s="7" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" s="7" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>4</v>
       </c>
@@ -1972,7 +1977,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>5</v>
       </c>
@@ -1983,7 +1988,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="57" t="s">
         <v>62</v>
       </c>
@@ -1991,7 +1996,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" s="7" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>6</v>
       </c>
@@ -2000,7 +2005,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>7</v>
       </c>
@@ -2009,7 +2014,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="32"/>
       <c r="C59" s="32"/>
     </row>
@@ -2020,7 +2025,7 @@
       <c r="B60" s="12"/>
       <c r="C60" s="8"/>
     </row>
-    <row r="61" spans="1:3" s="7" customFormat="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>0</v>
       </c>
@@ -2029,7 +2034,7 @@
       </c>
       <c r="C61" s="9"/>
     </row>
-    <row r="62" spans="1:3" s="7" customFormat="1" ht="187.15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>1</v>
       </c>
@@ -2038,7 +2043,7 @@
       </c>
       <c r="C62" s="43"/>
     </row>
-    <row r="63" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>2</v>
       </c>
@@ -2047,7 +2052,7 @@
       </c>
       <c r="C63" s="9"/>
     </row>
-    <row r="64" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>3</v>
       </c>
@@ -2056,7 +2061,7 @@
       </c>
       <c r="C64" s="9"/>
     </row>
-    <row r="65" spans="1:5" s="7" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" s="7" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>4</v>
       </c>
@@ -2067,7 +2072,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>5</v>
       </c>
@@ -2078,39 +2083,39 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
       <c r="B67" t="s">
         <v>85</v>
       </c>
       <c r="C67" s="34"/>
     </row>
-    <row r="68" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B68" s="11"/>
       <c r="C68" s="9"/>
     </row>
-    <row r="69" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="9"/>
     </row>
-    <row r="70" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="32"/>
       <c r="C70" s="32"/>
     </row>
-    <row r="71" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B71" s="12"/>
       <c r="C71" s="8"/>
     </row>
-    <row r="72" spans="1:5" s="7" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" s="7" customFormat="1" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>0</v>
       </c>
@@ -2119,7 +2124,7 @@
       </c>
       <c r="C72" s="9"/>
     </row>
-    <row r="73" spans="1:5" s="7" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>1</v>
       </c>
@@ -2128,7 +2133,7 @@
       </c>
       <c r="C73" s="43"/>
     </row>
-    <row r="74" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>2</v>
       </c>
@@ -2137,7 +2142,7 @@
       </c>
       <c r="C74" s="9"/>
     </row>
-    <row r="75" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>3</v>
       </c>
@@ -2146,7 +2151,7 @@
       </c>
       <c r="C75" s="9"/>
     </row>
-    <row r="76" spans="1:5" s="7" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" s="7" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>4</v>
       </c>
@@ -2158,7 +2163,7 @@
       </c>
       <c r="E76" s="64"/>
     </row>
-    <row r="77" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>5</v>
       </c>
@@ -2167,7 +2172,7 @@
       </c>
       <c r="C77" s="34"/>
     </row>
-    <row r="78" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>64</v>
@@ -2176,14 +2181,14 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
         <v>74</v>
       </c>
       <c r="C79" s="34"/>
     </row>
-    <row r="80" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>6</v>
       </c>
@@ -2192,7 +2197,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>7</v>
       </c>
@@ -2201,43 +2206,43 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:3" s="48" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="B82" s="49"/>
       <c r="C82" s="50"/>
     </row>
-    <row r="83" spans="1:3" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="51"/>
       <c r="B83" s="52"/>
       <c r="C83" s="53"/>
     </row>
-    <row r="84" spans="1:3" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="51"/>
       <c r="B84" s="52"/>
       <c r="C84" s="55"/>
     </row>
-    <row r="85" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B85" s="11"/>
       <c r="C85" s="9"/>
     </row>
-    <row r="86" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B86" s="11"/>
       <c r="C86" s="9"/>
     </row>
-    <row r="87" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
       <c r="B87" s="14"/>
       <c r="C87" s="35"/>
     </row>
-    <row r="88" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6"/>
       <c r="B88" s="28"/>
       <c r="C88" s="34"/>
     </row>
-    <row r="89" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B89" s="11"/>
       <c r="C89" s="9"/>
     </row>
-    <row r="90" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B90" s="11"/>
       <c r="C90" s="9"/>
     </row>

--- a/Test protocol/Sprint_2/DE/System Test protocol_Braille DP2_Sprint 2_DE.xlsx
+++ b/Test protocol/Sprint_2/DE/System Test protocol_Braille DP2_Sprint 2_DE.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="108">
   <si>
     <t>Requirement ID:</t>
   </si>
@@ -493,6 +493,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Job does not end (Running ...). No output.</t>
+  </si>
+  <si>
+    <t>To be merged</t>
   </si>
 </sst>
 </file>
@@ -1441,7 +1444,7 @@
       </c>
       <c r="C31" s="9"/>
     </row>
-    <row r="32" spans="1:3" s="7" customFormat="1" ht="288" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" s="7" customFormat="1" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>4</v>
       </c>
@@ -1491,7 +1494,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2088,7 +2091,9 @@
       <c r="B67" t="s">
         <v>85</v>
       </c>
-      <c r="C67" s="34"/>
+      <c r="C67" s="34" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="68" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
@@ -2170,7 +2175,9 @@
       <c r="B77" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C77" s="34"/>
+      <c r="C77" s="34" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="78" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
@@ -2268,8 +2275,9 @@
     <hyperlink ref="E3" r:id="rId18"/>
     <hyperlink ref="C78" r:id="rId19"/>
     <hyperlink ref="E4" r:id="rId20"/>
+    <hyperlink ref="C77" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>